--- a/data/trans_camb/P29_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +526,18 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,07</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-11,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,37</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>8,33</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,98</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,51</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-9,6</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 4,16</t>
+          <t>-8,69; 3,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 5,95</t>
+          <t>-6,02; 6,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 23,98</t>
+          <t>-10,45; 2,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,95</t>
+          <t>4,6; 16,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,3</t>
+          <t>-16,38; -5,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 19,97</t>
+          <t>-4,24; 4,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,08</t>
+          <t>-2,62; 5,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 4,14</t>
+          <t>-5,19; 3,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,98; 20,7</t>
+          <t>3,62; 13,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; -3,1</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 2,52</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 4,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 1,19</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 13,03</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; -5,55</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>-13,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>-22,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,07%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,69%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>40,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-21,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,26%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-9,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-22,3%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 14,7</t>
+          <t>-22,75; 12,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 20,82</t>
+          <t>-16,94; 21,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,11; 84,62</t>
+          <t>-29,81; 9,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 25,67</t>
+          <t>15,22; 68,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 27,76</t>
+          <t>-31,62; -11,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,61; 106,42</t>
+          <t>-18,2; 23,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 12,73</t>
+          <t>-11,43; 30,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 17,53</t>
+          <t>-22,6; 21,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,08; 86,11</t>
+          <t>15,47; 74,21</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-32,67; -8,87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 10,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,99; 17,8</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-23,31; 5,0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>22,91; 59,49</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-29,43; -13,66</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,41</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-14,74</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-11,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 5,82</t>
+          <t>-9,68; 3,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 6,89</t>
+          <t>-8,14; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 12,79</t>
+          <t>-11,42; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,85</t>
+          <t>-8,59; 7,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 12,78</t>
+          <t>-16,6; 1,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,08; 26,15</t>
+          <t>0,05; 10,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,41</t>
+          <t>1,9; 12,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 7,73</t>
+          <t>0,53; 12,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 16,65</t>
+          <t>-9,78; 5,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-22,63; -5,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 5,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 7,56</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 5,62</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 4,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-17,52; -4,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-8,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>-20,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-38,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-29,43%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 19,52</t>
+          <t>-24,91; 12,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 22,7</t>
+          <t>-21,34; 18,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 40,7</t>
+          <t>-29,07; 13,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 59,43</t>
+          <t>-25,34; 25,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 75,73</t>
+          <t>-38,56; 4,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,73; 154,1</t>
+          <t>-0,72; 65,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 22,2</t>
+          <t>7,97; 75,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 31,7</t>
+          <t>2,62; 75,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 67,5</t>
+          <t>-33,33; 25,75</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-53,42; -15,6</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-10,18; 20,8</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 29,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,96; 21,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; 17,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-42,96; -13,29</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,74</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>7,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,69</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,73</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,66</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,53</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 18,98</t>
+          <t>-3,18; 21,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 24,67</t>
+          <t>1,34; 27,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-13,56; 11,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 18,64</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 16,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-2,66; 17,63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 15,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 22,98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 16,05</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 17,25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 16,46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 18,44</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 13,11</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>52,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-2,83%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>43,25%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30,11%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49,91%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>28,56%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>33,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 78,47</t>
+          <t>-9,03; 97,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 106,31</t>
+          <t>2,48; 124,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-40,23; 50,34</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 119,4</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 109,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-12,61; 105,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-13,12; 94,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 132,56</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 73,24</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 79,51</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 78,77</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 87,47</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 63,5</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,2</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-10,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,45</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-9,46</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-9,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 3,34</t>
+          <t>-5,43; 2,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,47</t>
+          <t>-2,98; 5,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,23; 19,04</t>
+          <t>-8,67; 0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,26</t>
+          <t>2,76; 12,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,24</t>
+          <t>-15,58; -5,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,14</t>
+          <t>-0,56; 5,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,63</t>
+          <t>1,01; 7,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,63</t>
+          <t>-0,37; 6,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,36</t>
+          <t>-0,69; 7,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; -5,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,47</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 5,59</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 2,61</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 8,58</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; -6,9</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>-22,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-25,6%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-23,83%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 11,28</t>
+          <t>-15,16; 9,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 18,13</t>
+          <t>-8,54; 18,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,71; 62,6</t>
+          <t>-24,65; 2,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 32,7</t>
+          <t>8,55; 45,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 39,2</t>
+          <t>-31,95; -12,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>55,72; 106,2</t>
+          <t>-2,51; 29,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 14,31</t>
+          <t>4,92; 38,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 22,52</t>
+          <t>-1,93; 34,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>42,63; 73,35</t>
+          <t>-2,71; 34,17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-35,59; -14,86</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 14,08</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 22,34</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-11,34; 10,35</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 34,42</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-30,07; -16,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
